--- a/mega_form.xlsx
+++ b/mega_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,24 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
-  <si>
-    <t>dex num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="215">
   <si>
     <t>abbr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Fire Dragon </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Psychic Fighting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mega x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,42 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Electric Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug Flying </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon Fairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ground Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Fighting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Fairy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Dark </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Primal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,55 +228,454 @@
     <t>https://media.52poke.com/wiki/9/9d/383Groudon-Primal.png</t>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega Venusaur</t>
+  </si>
+  <si>
+    <t>Mega Charizard X</t>
+  </si>
+  <si>
+    <t>Mega Charizard Y</t>
+  </si>
+  <si>
+    <t>Mega Blastoise</t>
+  </si>
+  <si>
+    <t>Mega Beedrill</t>
+  </si>
+  <si>
+    <t>Mega Pidgeot</t>
+  </si>
+  <si>
+    <t>Mega Alakazam</t>
+  </si>
+  <si>
+    <t>Mega Slowbro</t>
+  </si>
+  <si>
+    <t>Mega Gengar</t>
+  </si>
+  <si>
+    <t>Mega Kangaskhan</t>
+  </si>
+  <si>
+    <t>Mega Pinsir</t>
+  </si>
+  <si>
+    <t>Mega Gyarados</t>
+  </si>
+  <si>
+    <t>Mega Aerodactyl</t>
+  </si>
+  <si>
+    <t>Mega Mewtwo X</t>
+  </si>
+  <si>
+    <t>Mega Mewtwo Y</t>
+  </si>
+  <si>
+    <t>Mega Ampharos</t>
+  </si>
+  <si>
+    <t>Mega Steelix</t>
+  </si>
+  <si>
+    <t>Mega Scizor</t>
+  </si>
+  <si>
+    <t>Mega Heracross</t>
+  </si>
+  <si>
+    <t>Mega Houndoom</t>
+  </si>
+  <si>
+    <t>Mega Tyranitar</t>
+  </si>
+  <si>
+    <t>Mega Sceptile</t>
+  </si>
+  <si>
+    <t>Mega Blaziken</t>
+  </si>
+  <si>
+    <t>Mega Swampert</t>
+  </si>
+  <si>
+    <t>Mega Gardevoir</t>
+  </si>
+  <si>
+    <t>Mega Sableye</t>
+  </si>
+  <si>
+    <t>Mega Mawile</t>
+  </si>
+  <si>
+    <t>Mega Aggron</t>
+  </si>
+  <si>
+    <t>Mega Medicham</t>
+  </si>
+  <si>
+    <t>Mega Manectric</t>
+  </si>
+  <si>
+    <t>Mega Sharpedo</t>
+  </si>
+  <si>
+    <t>Mega Camerupt</t>
+  </si>
+  <si>
+    <t>Mega Altaria</t>
+  </si>
+  <si>
+    <t>Mega Banette</t>
+  </si>
+  <si>
+    <t>Mega Absol</t>
+  </si>
+  <si>
+    <t>Mega Glalie</t>
+  </si>
+  <si>
+    <t>Mega Salamence</t>
+  </si>
+  <si>
+    <t>Mega Metagross</t>
+  </si>
+  <si>
+    <t>Mega Latias</t>
+  </si>
+  <si>
+    <t>Mega Latios</t>
+  </si>
+  <si>
+    <t>Primal Kyogre</t>
+  </si>
+  <si>
+    <t>Primal Groudon</t>
+  </si>
+  <si>
+    <t>Mega Rayquaza</t>
+  </si>
+  <si>
+    <t>Mega Lopunny</t>
+  </si>
+  <si>
+    <t>Mega Garchomp</t>
+  </si>
+  <si>
+    <t>Mega Lucario</t>
+  </si>
+  <si>
+    <t>Mega Abomasnow</t>
+  </si>
+  <si>
+    <t>Mega Gallade</t>
+  </si>
+  <si>
+    <t>Mega Audino</t>
+  </si>
+  <si>
+    <t>Mega Diancie</t>
+  </si>
+  <si>
+    <t>超级妙蛙花</t>
+  </si>
+  <si>
     <t>超级喷火龙X</t>
+  </si>
+  <si>
+    <t>超级喷火龙Y</t>
+  </si>
+  <si>
+    <t>超级水箭龟</t>
+  </si>
+  <si>
+    <t>超级大针蜂</t>
+  </si>
+  <si>
+    <t>超级大比鸟</t>
+  </si>
+  <si>
+    <t>超级胡地</t>
+  </si>
+  <si>
+    <t>超级呆壳兽</t>
+  </si>
+  <si>
+    <t>超级耿鬼</t>
+  </si>
+  <si>
+    <t>超级袋兽</t>
+  </si>
+  <si>
+    <t>超级凯罗斯</t>
+  </si>
+  <si>
+    <t>超级暴鲤龙</t>
+  </si>
+  <si>
+    <t>超级化石翼龙</t>
+  </si>
+  <si>
+    <t>超级超梦X</t>
+  </si>
+  <si>
+    <t>超级超梦Y</t>
+  </si>
+  <si>
+    <t>超级电龙</t>
+  </si>
+  <si>
+    <t>超级大钢蛇</t>
+  </si>
+  <si>
+    <t>超级巨钳螳螂</t>
+  </si>
+  <si>
+    <t>超级赫拉克罗斯</t>
+  </si>
+  <si>
+    <t>超级黑鲁加</t>
+  </si>
+  <si>
+    <t>超级班基拉斯</t>
+  </si>
+  <si>
+    <t>超级蜥蜴王</t>
+  </si>
+  <si>
+    <t>超级火焰鸡</t>
+  </si>
+  <si>
+    <t>超级巨沼怪</t>
+  </si>
+  <si>
+    <t>超级沙奈朵</t>
+  </si>
+  <si>
+    <t>超级勾魂眼</t>
+  </si>
+  <si>
+    <t>超级大嘴娃</t>
+  </si>
+  <si>
+    <t>超级波士可多拉</t>
+  </si>
+  <si>
+    <t>超级恰雷姆</t>
+  </si>
+  <si>
+    <t>超级雷电兽</t>
+  </si>
+  <si>
+    <t>超级巨牙鲨</t>
+  </si>
+  <si>
+    <t>超级喷火驼</t>
+  </si>
+  <si>
+    <t>超级七夕青鸟</t>
+  </si>
+  <si>
+    <t>超级诅咒娃娃</t>
+  </si>
+  <si>
+    <t>超级阿勃梭鲁</t>
+  </si>
+  <si>
+    <t>超级冰鬼护</t>
+  </si>
+  <si>
+    <t>超级暴飞龙</t>
+  </si>
+  <si>
+    <t>超级巨金怪</t>
+  </si>
+  <si>
+    <t>超级拉帝亚斯</t>
+  </si>
+  <si>
+    <t>超级拉帝欧斯</t>
+  </si>
+  <si>
+    <t>原始盖欧卡</t>
+  </si>
+  <si>
+    <t>原始固拉多</t>
+  </si>
+  <si>
+    <t>超级烈空坐</t>
+  </si>
+  <si>
+    <t>超级长耳兔</t>
+  </si>
+  <si>
+    <t>超级烈咬陆鲨</t>
+  </si>
+  <si>
+    <t>超级路卡利欧</t>
+  </si>
+  <si>
+    <t>超级暴雪王</t>
+  </si>
+  <si>
+    <t>超级艾路雷朵</t>
+  </si>
+  <si>
+    <t>超级差不多娃娃</t>
+  </si>
+  <si>
+    <t>超级蒂安希</t>
+  </si>
+  <si>
+    <t>Grass Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Dragon </t>
+  </si>
+  <si>
+    <t>Fire Flying</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Bug Poison</t>
+  </si>
+  <si>
+    <t>Normal Flying</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Water Psychic</t>
+  </si>
+  <si>
+    <t>Ghost Poison</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Flying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Dark </t>
+  </si>
+  <si>
+    <t>Rock Flying</t>
+  </si>
+  <si>
+    <t>Psychic Fighting</t>
+  </si>
+  <si>
+    <t>Electric Dragon</t>
+  </si>
+  <si>
+    <t>Steel Ground</t>
+  </si>
+  <si>
+    <t>Bug Steel</t>
+  </si>
+  <si>
+    <t>Bug Fighting</t>
+  </si>
+  <si>
+    <t>Dark Fire</t>
+  </si>
+  <si>
+    <t>Rock Dark</t>
+  </si>
+  <si>
+    <t>Grass Dragon</t>
+  </si>
+  <si>
+    <t>Fire Fighting</t>
+  </si>
+  <si>
+    <t>Water Ground</t>
+  </si>
+  <si>
+    <t>Psychic Fairy</t>
+  </si>
+  <si>
+    <t>Dark Ghost</t>
+  </si>
+  <si>
+    <t>Steel Fairy</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Fighting Psychic</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Water Dark</t>
+  </si>
+  <si>
+    <t>Fire Ground</t>
+  </si>
+  <si>
+    <t>Dragon Fairy</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Dragon Flying</t>
+  </si>
+  <si>
+    <t>Steel Psychic</t>
+  </si>
+  <si>
+    <t>Dragon Psychic</t>
+  </si>
+  <si>
+    <t>Ground Fire</t>
+  </si>
+  <si>
+    <t>Normal Fighting</t>
+  </si>
+  <si>
+    <t>Dragon Ground</t>
+  </si>
+  <si>
+    <t>Fighting Steel</t>
+  </si>
+  <si>
+    <t>Ice Grass</t>
+  </si>
+  <si>
+    <t>Normal Fairy</t>
+  </si>
+  <si>
+    <t>Rock Fairy</t>
+  </si>
+  <si>
+    <t>mega</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超级喷火龙Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级超梦X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级超梦Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始固拉多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始盖欧卡</t>
+    <t>dex number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,8 +747,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,18 +768,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -755,67 +1110,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>80</v>
@@ -851,21 +1207,24 @@
         <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>78</v>
@@ -901,21 +1260,24 @@
         <v>227</v>
       </c>
       <c r="M3" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>78</v>
@@ -951,21 +1313,24 @@
         <v>232</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="17">
+        <v>120</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>79</v>
@@ -1001,21 +1366,24 @@
         <v>240</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="17">
+        <v>121</v>
+      </c>
+      <c r="P5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <v>65</v>
@@ -1051,21 +1419,24 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="17">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1">
         <v>83</v>
@@ -1101,21 +1472,24 @@
         <v>175</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="17">
+        <v>123</v>
+      </c>
+      <c r="P7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
       <c r="A8">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1">
         <v>55</v>
@@ -1151,21 +1525,24 @@
         <v>230</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="17">
+        <v>124</v>
+      </c>
+      <c r="P8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17">
       <c r="A9">
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1">
         <v>95</v>
@@ -1201,21 +1578,24 @@
         <v>305</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="17">
+        <v>125</v>
+      </c>
+      <c r="P9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17">
       <c r="A10">
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>60</v>
@@ -1251,21 +1631,24 @@
         <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="17">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
       <c r="A11">
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>105</v>
@@ -1301,21 +1684,24 @@
         <v>210</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="17">
+        <v>127</v>
+      </c>
+      <c r="P11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17">
       <c r="A12">
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1">
         <v>65</v>
@@ -1351,16 +1737,19 @@
         <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="17">
+        <v>128</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
       <c r="A13">
         <v>130</v>
       </c>
@@ -1401,21 +1790,24 @@
         <v>258</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="17">
+        <v>129</v>
+      </c>
+      <c r="P13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
       <c r="A14">
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>80</v>
@@ -1451,21 +1843,24 @@
         <v>216</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="17">
+        <v>130</v>
+      </c>
+      <c r="P14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17">
       <c r="A15">
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
         <v>106</v>
@@ -1501,21 +1896,24 @@
         <v>222</v>
       </c>
       <c r="M15" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="17">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
       <c r="A16">
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1">
         <v>106</v>
@@ -1551,21 +1949,24 @@
         <v>258</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17">
+        <v>132</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17">
       <c r="A17">
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>90</v>
@@ -1601,21 +2002,24 @@
         <v>206</v>
       </c>
       <c r="M17" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="17">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17">
       <c r="A18">
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1">
         <v>75</v>
@@ -1651,21 +2055,24 @@
         <v>388</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="17">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17">
       <c r="A19">
         <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1">
         <v>70</v>
@@ -1701,21 +2108,24 @@
         <v>270</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17">
+        <v>135</v>
+      </c>
+      <c r="P19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17">
       <c r="A20">
         <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
@@ -1751,21 +2161,24 @@
         <v>228</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17">
+        <v>136</v>
+      </c>
+      <c r="P20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17">
       <c r="A21">
         <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1">
         <v>75</v>
@@ -1801,21 +2214,24 @@
         <v>194</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17">
+        <v>137</v>
+      </c>
+      <c r="P21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
       <c r="A22">
         <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -1851,21 +2267,24 @@
         <v>291</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17">
+        <v>138</v>
+      </c>
+      <c r="P22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17">
       <c r="A23">
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1">
         <v>70</v>
@@ -1901,21 +2320,24 @@
         <v>192</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17">
+        <v>139</v>
+      </c>
+      <c r="P23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17">
       <c r="A24">
         <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>80</v>
@@ -1951,21 +2373,24 @@
         <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17">
+        <v>140</v>
+      </c>
+      <c r="P24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17">
       <c r="A25">
         <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
@@ -2001,21 +2426,24 @@
         <v>218</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="17">
+        <v>141</v>
+      </c>
+      <c r="P25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17">
       <c r="A26">
         <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1">
         <v>68</v>
@@ -2051,21 +2479,24 @@
         <v>266</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17">
+        <v>142</v>
+      </c>
+      <c r="P26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17">
       <c r="A27">
         <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -2101,21 +2532,24 @@
         <v>221</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="17">
+        <v>143</v>
+      </c>
+      <c r="P27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17">
       <c r="A28">
         <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1">
         <v>50</v>
@@ -2151,21 +2585,24 @@
         <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17">
+        <v>144</v>
+      </c>
+      <c r="P28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17">
       <c r="A29">
         <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>70</v>
@@ -2201,21 +2638,24 @@
         <v>402</v>
       </c>
       <c r="M29" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="N29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="17">
+        <v>145</v>
+      </c>
+      <c r="P29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17">
       <c r="A30">
         <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1">
         <v>60</v>
@@ -2251,21 +2691,24 @@
         <v>179</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="N30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="17">
+        <v>146</v>
+      </c>
+      <c r="P30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17">
       <c r="A31">
         <v>310</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -2301,21 +2744,24 @@
         <v>179</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="17">
+        <v>147</v>
+      </c>
+      <c r="P31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17">
       <c r="A32">
         <v>319</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1">
         <v>70</v>
@@ -2351,21 +2797,24 @@
         <v>147</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="N32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17">
+        <v>148</v>
+      </c>
+      <c r="P32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17">
       <c r="A33">
         <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1">
         <v>70</v>
@@ -2401,21 +2850,24 @@
         <v>186</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="N33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="17">
+        <v>149</v>
+      </c>
+      <c r="P33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17">
       <c r="A34">
         <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1">
         <v>75</v>
@@ -2451,21 +2903,24 @@
         <v>221</v>
       </c>
       <c r="M34" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="N34" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="17">
+        <v>150</v>
+      </c>
+      <c r="P34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17">
       <c r="A35">
         <v>354</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1">
         <v>64</v>
@@ -2501,21 +2956,24 @@
         <v>164</v>
       </c>
       <c r="M35" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="N35" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="17">
+        <v>151</v>
+      </c>
+      <c r="P35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17">
       <c r="A36">
         <v>359</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1">
         <v>65</v>
@@ -2551,21 +3009,24 @@
         <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="N36" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17">
+        <v>152</v>
+      </c>
+      <c r="P36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17">
       <c r="A37">
         <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1">
         <v>80</v>
@@ -2601,21 +3062,24 @@
         <v>168</v>
       </c>
       <c r="M37" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="17">
+        <v>153</v>
+      </c>
+      <c r="P37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17">
       <c r="A38">
         <v>373</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1">
         <v>95</v>
@@ -2651,21 +3115,24 @@
         <v>273</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17">
+        <v>154</v>
+      </c>
+      <c r="P38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17">
       <c r="A39">
         <v>376</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1">
         <v>80</v>
@@ -2701,21 +3168,24 @@
         <v>310</v>
       </c>
       <c r="M39" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="N39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17">
+        <v>155</v>
+      </c>
+      <c r="P39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17">
       <c r="A40">
         <v>380</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1">
         <v>80</v>
@@ -2751,21 +3221,24 @@
         <v>314</v>
       </c>
       <c r="M40" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17">
+        <v>156</v>
+      </c>
+      <c r="P40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17">
       <c r="A41">
         <v>381</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1">
         <v>80</v>
@@ -2801,21 +3274,24 @@
         <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="N41" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="17">
+        <v>157</v>
+      </c>
+      <c r="P41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17">
       <c r="A42">
         <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1">
         <v>100</v>
@@ -2851,21 +3327,24 @@
         <v>312</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="N42" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="17">
+        <v>158</v>
+      </c>
+      <c r="P42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17">
       <c r="A43">
         <v>383</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1">
         <v>100</v>
@@ -2901,21 +3380,24 @@
         <v>312</v>
       </c>
       <c r="M43" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="N43" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="17">
+        <v>159</v>
+      </c>
+      <c r="P43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17">
       <c r="A44">
         <v>384</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>105</v>
@@ -2951,21 +3433,24 @@
         <v>216</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="17">
+        <v>160</v>
+      </c>
+      <c r="P44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17">
       <c r="A45">
         <v>428</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1">
         <v>65</v>
@@ -3001,21 +3486,24 @@
         <v>215</v>
       </c>
       <c r="M45" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17">
+        <v>161</v>
+      </c>
+      <c r="P45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17">
       <c r="A46">
         <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1">
         <v>108</v>
@@ -3051,21 +3539,24 @@
         <v>233</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="N46" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="17">
+        <v>162</v>
+      </c>
+      <c r="P46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17">
       <c r="A47">
         <v>448</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1">
         <v>70</v>
@@ -3101,21 +3592,24 @@
         <v>185</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="17">
+        <v>163</v>
+      </c>
+      <c r="P47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17">
       <c r="A48">
         <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1">
         <v>90</v>
@@ -3151,21 +3645,24 @@
         <v>191</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="N48" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="17">
+        <v>164</v>
+      </c>
+      <c r="P48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17">
       <c r="A49">
         <v>475</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1">
         <v>68</v>
@@ -3201,21 +3698,24 @@
         <v>241</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="N49" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="17">
+        <v>165</v>
+      </c>
+      <c r="P49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="17">
       <c r="A50">
         <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1">
         <v>103</v>
@@ -3251,21 +3751,24 @@
         <v>239</v>
       </c>
       <c r="M50" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="N50" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="17">
+        <v>166</v>
+      </c>
+      <c r="P50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17">
       <c r="A51">
         <v>719</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -3301,13 +3804,16 @@
         <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="N51" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>89</v>
+        <v>167</v>
+      </c>
+      <c r="P51" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/mega_form.xlsx
+++ b/mega_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="10440" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="224">
   <si>
     <t>abbr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,42 @@
   </si>
   <si>
     <t>dex number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级袋龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级大甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级班吉拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级灾兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级血翼飞龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级合金十字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级裂空座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级比雕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +783,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -768,7 +806,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -776,12 +814,14 @@
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1110,13 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>214</v>
       </c>
@@ -1162,11 +1204,14 @@
       <c r="O1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1216,10 +1261,13 @@
         <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1269,10 +1317,13 @@
         <v>119</v>
       </c>
       <c r="P3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1322,10 +1373,13 @@
         <v>120</v>
       </c>
       <c r="P4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17">
+    <row r="5" spans="1:17" ht="17">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1375,10 +1429,13 @@
         <v>121</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17">
+        <v>121</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1428,10 +1485,13 @@
         <v>122</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17">
       <c r="A7">
         <v>18</v>
       </c>
@@ -1481,10 +1541,13 @@
         <v>123</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17">
+        <v>223</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17">
       <c r="A8">
         <v>65</v>
       </c>
@@ -1534,10 +1597,13 @@
         <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17">
+        <v>124</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1587,10 +1653,13 @@
         <v>125</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17">
+        <v>125</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1640,10 +1709,13 @@
         <v>126</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17">
+        <v>126</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17">
       <c r="A11">
         <v>115</v>
       </c>
@@ -1693,10 +1765,13 @@
         <v>127</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17">
+        <v>216</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17">
       <c r="A12">
         <v>127</v>
       </c>
@@ -1746,10 +1821,13 @@
         <v>128</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17">
+        <v>217</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17">
       <c r="A13">
         <v>130</v>
       </c>
@@ -1799,10 +1877,13 @@
         <v>129</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17">
+        <v>129</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17">
       <c r="A14">
         <v>142</v>
       </c>
@@ -1852,10 +1933,13 @@
         <v>130</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17">
+        <v>130</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17">
       <c r="A15">
         <v>150</v>
       </c>
@@ -1905,10 +1989,13 @@
         <v>131</v>
       </c>
       <c r="P15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17">
+    <row r="16" spans="1:17" ht="17">
       <c r="A16">
         <v>150</v>
       </c>
@@ -1958,10 +2045,13 @@
         <v>132</v>
       </c>
       <c r="P16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17">
+    <row r="17" spans="1:17" ht="17">
       <c r="A17">
         <v>181</v>
       </c>
@@ -2011,10 +2101,13 @@
         <v>133</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="17">
+        <v>133</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17">
       <c r="A18">
         <v>208</v>
       </c>
@@ -2064,10 +2157,13 @@
         <v>134</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="17">
+        <v>134</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17">
       <c r="A19">
         <v>212</v>
       </c>
@@ -2117,10 +2213,13 @@
         <v>135</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="17">
+        <v>135</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17">
       <c r="A20">
         <v>214</v>
       </c>
@@ -2170,10 +2269,13 @@
         <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17">
+        <v>136</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17">
       <c r="A21">
         <v>229</v>
       </c>
@@ -2223,10 +2325,13 @@
         <v>137</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="17">
+        <v>137</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17">
       <c r="A22">
         <v>248</v>
       </c>
@@ -2276,10 +2381,13 @@
         <v>138</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17">
+        <v>218</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17">
       <c r="A23">
         <v>254</v>
       </c>
@@ -2329,10 +2437,13 @@
         <v>139</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="17">
+        <v>139</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17">
       <c r="A24">
         <v>257</v>
       </c>
@@ -2382,10 +2493,13 @@
         <v>140</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17">
+        <v>140</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17">
       <c r="A25">
         <v>260</v>
       </c>
@@ -2435,10 +2549,13 @@
         <v>141</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="17">
+        <v>141</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17">
       <c r="A26">
         <v>282</v>
       </c>
@@ -2488,10 +2605,13 @@
         <v>142</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="17">
+        <v>142</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17">
       <c r="A27">
         <v>302</v>
       </c>
@@ -2541,10 +2661,13 @@
         <v>143</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="17">
+        <v>143</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17">
       <c r="A28">
         <v>303</v>
       </c>
@@ -2594,10 +2717,13 @@
         <v>144</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="17">
+        <v>144</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17">
       <c r="A29">
         <v>306</v>
       </c>
@@ -2647,10 +2773,13 @@
         <v>145</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="17">
+        <v>145</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17">
       <c r="A30">
         <v>308</v>
       </c>
@@ -2700,10 +2829,13 @@
         <v>146</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="17">
+        <v>146</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17">
       <c r="A31">
         <v>310</v>
       </c>
@@ -2753,10 +2885,13 @@
         <v>147</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17">
+        <v>147</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17">
       <c r="A32">
         <v>319</v>
       </c>
@@ -2806,10 +2941,13 @@
         <v>148</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="17">
+        <v>148</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17">
       <c r="A33">
         <v>323</v>
       </c>
@@ -2859,10 +2997,13 @@
         <v>149</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17">
+        <v>149</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17">
       <c r="A34">
         <v>334</v>
       </c>
@@ -2912,10 +3053,13 @@
         <v>150</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="17">
+        <v>150</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17">
       <c r="A35">
         <v>354</v>
       </c>
@@ -2965,10 +3109,13 @@
         <v>151</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17">
+        <v>151</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17">
       <c r="A36">
         <v>359</v>
       </c>
@@ -3018,10 +3165,13 @@
         <v>152</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17">
+        <v>219</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17">
       <c r="A37">
         <v>362</v>
       </c>
@@ -3071,10 +3221,13 @@
         <v>153</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17">
+        <v>153</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17">
       <c r="A38">
         <v>373</v>
       </c>
@@ -3124,10 +3277,13 @@
         <v>154</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="17">
+        <v>220</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17">
       <c r="A39">
         <v>376</v>
       </c>
@@ -3177,10 +3333,13 @@
         <v>155</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17">
+        <v>221</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17">
       <c r="A40">
         <v>380</v>
       </c>
@@ -3230,10 +3389,13 @@
         <v>156</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17">
+        <v>156</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17">
       <c r="A41">
         <v>381</v>
       </c>
@@ -3283,10 +3445,13 @@
         <v>157</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17">
+        <v>157</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17">
       <c r="A42">
         <v>382</v>
       </c>
@@ -3336,10 +3501,13 @@
         <v>158</v>
       </c>
       <c r="P42" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17">
+    <row r="43" spans="1:17" ht="17">
       <c r="A43">
         <v>383</v>
       </c>
@@ -3389,10 +3557,13 @@
         <v>159</v>
       </c>
       <c r="P43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17">
+    <row r="44" spans="1:17" ht="17">
       <c r="A44">
         <v>384</v>
       </c>
@@ -3442,10 +3613,13 @@
         <v>160</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17">
+        <v>222</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17">
       <c r="A45">
         <v>428</v>
       </c>
@@ -3495,10 +3669,13 @@
         <v>161</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17">
+        <v>161</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17">
       <c r="A46">
         <v>445</v>
       </c>
@@ -3548,10 +3725,13 @@
         <v>162</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17">
+        <v>162</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17">
       <c r="A47">
         <v>448</v>
       </c>
@@ -3601,10 +3781,13 @@
         <v>163</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="17">
+        <v>163</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17">
       <c r="A48">
         <v>460</v>
       </c>
@@ -3654,10 +3837,13 @@
         <v>164</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="17">
+        <v>164</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17">
       <c r="A49">
         <v>475</v>
       </c>
@@ -3707,10 +3893,13 @@
         <v>165</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="17">
+        <v>165</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17">
       <c r="A50">
         <v>531</v>
       </c>
@@ -3760,10 +3949,13 @@
         <v>166</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="17">
+        <v>166</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17">
       <c r="A51">
         <v>719</v>
       </c>
@@ -3813,6 +4005,9 @@
         <v>167</v>
       </c>
       <c r="P51" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q51" t="s">
         <v>213</v>
       </c>
     </row>

--- a/mega_form.xlsx
+++ b/mega_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="-480" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1240,16 +1240,16 @@
         <v>625</v>
       </c>
       <c r="J2" s="3">
-        <f>2*C2</f>
-        <v>160</v>
+        <f>FLOOR(1.75*C2+50,1)</f>
+        <v>190</v>
       </c>
       <c r="K2" s="3">
         <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(F2,D2)+MIN(F2,D2)),0)),0)</f>
         <v>241</v>
       </c>
       <c r="L2" s="3">
-        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(G2,E2)+MIN(G2,E2)),0)),0)</f>
-        <v>247</v>
+        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(5*MAX(G2,E2)+3*MIN(G2,E2)),0)),0)</f>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
         <v>168</v>
@@ -1296,16 +1296,16 @@
         <v>634</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J51" si="0">2*C3</f>
-        <v>156</v>
+        <f t="shared" ref="J3:J25" si="0">FLOOR(1.75*C3+50,1)</f>
+        <v>186</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K51" si="1">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(F3,D3)+MIN(F3,D3)),0)),0)</f>
+        <f t="shared" ref="K3:K25" si="1">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(F3,D3)+MIN(F3,D3)),0)),0)</f>
         <v>273</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L51" si="2">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(G3,E3)+MIN(G3,E3)),0)),0)</f>
-        <v>227</v>
+        <f t="shared" ref="L3:L25" si="2">ROUND((1+(H3-75)/500)*(ROUND(0.25*(5*MAX(G3,E3)+3*MIN(G3,E3)),0)),0)</f>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
         <v>169</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="1"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M4" t="s">
         <v>170</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M5" t="s">
         <v>171</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
         <v>172</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="M8" t="s">
         <v>174</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M9" t="s">
         <v>175</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
         <v>176</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M12" t="s">
         <v>178</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M13" t="s">
         <v>179</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M14" t="s">
         <v>180</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="M16" t="s">
         <v>174</v>
@@ -2080,8 +2080,8 @@
         <v>610</v>
       </c>
       <c r="J17" s="3">
-        <f>2*C17</f>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>207</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s">
         <v>182</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="M18" t="s">
         <v>183</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M19" t="s">
         <v>184</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="1"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s">
         <v>185</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="1"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="1"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L22" s="3">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="M22" t="s">
         <v>187</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="1"/>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="L23" s="3">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s">
         <v>188</v>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="1"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
@@ -2584,16 +2584,16 @@
         <v>618</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
-        <v>136</v>
+        <f>FLOOR(1.75*C26+50,1)</f>
+        <v>169</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND((1+(H26-75)/500)*(ROUND(0.25*(7*MAX(F26,D26)+MIN(F26,D26)),0)),0)</f>
         <v>326</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="2"/>
-        <v>266</v>
+        <f>ROUND((1+(H26-75)/500)*(ROUND(0.25*(5*MAX(G26,E26)+3*MIN(G26,E26)),0)),0)</f>
+        <v>229</v>
       </c>
       <c r="M26" t="s">
         <v>191</v>
@@ -2640,16 +2640,16 @@
         <v>480</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" ref="J27:J41" si="3">FLOOR(1.75*C27+50,1)</f>
+        <v>137</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K27:K41" si="4">ROUND((1+(H27-75)/500)*(ROUND(0.25*(7*MAX(F27,D27)+MIN(F27,D27)),0)),0)</f>
         <v>151</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="2"/>
-        <v>221</v>
+        <f t="shared" ref="L27:L41" si="5">ROUND((1+(H27-75)/500)*(ROUND(0.25*(5*MAX(G27,E27)+3*MIN(G27,E27)),0)),0)</f>
+        <v>216</v>
       </c>
       <c r="M27" t="s">
         <v>192</v>
@@ -2696,16 +2696,16 @@
         <v>480</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>188</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="2"/>
-        <v>231</v>
+        <f t="shared" si="5"/>
+        <v>217</v>
       </c>
       <c r="M28" t="s">
         <v>193</v>
@@ -2752,16 +2752,16 @@
         <v>630</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="2"/>
-        <v>402</v>
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="M29" t="s">
         <v>194</v>
@@ -2808,15 +2808,15 @@
         <v>510</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>155</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="M30" t="s">
@@ -2864,15 +2864,15 @@
         <v>575</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="M31" t="s">
@@ -2920,16 +2920,16 @@
         <v>560</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="2"/>
-        <v>147</v>
+        <f t="shared" si="5"/>
+        <v>144</v>
       </c>
       <c r="M32" t="s">
         <v>197</v>
@@ -2976,16 +2976,16 @@
         <v>560</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="2"/>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>183</v>
       </c>
       <c r="M33" t="s">
         <v>198</v>
@@ -3032,16 +3032,16 @@
         <v>590</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>181</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="2"/>
-        <v>221</v>
+        <f t="shared" si="5"/>
+        <v>218</v>
       </c>
       <c r="M34" t="s">
         <v>199</v>
@@ -3088,16 +3088,16 @@
         <v>555</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>162</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
-        <v>164</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="M35" t="s">
         <v>200</v>
@@ -3144,15 +3144,15 @@
         <v>565</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>163</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="M36" t="s">
@@ -3200,15 +3200,15 @@
         <v>580</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="M37" t="s">
@@ -3256,16 +3256,16 @@
         <v>700</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="2"/>
-        <v>273</v>
+        <f t="shared" si="5"/>
+        <v>251</v>
       </c>
       <c r="M38" t="s">
         <v>203</v>
@@ -3312,16 +3312,16 @@
         <v>700</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="2"/>
-        <v>310</v>
+        <f t="shared" si="5"/>
+        <v>289</v>
       </c>
       <c r="M39" t="s">
         <v>204</v>
@@ -3368,16 +3368,16 @@
         <v>700</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="2"/>
-        <v>314</v>
+        <f t="shared" si="5"/>
+        <v>297</v>
       </c>
       <c r="M40" t="s">
         <v>205</v>
@@ -3424,16 +3424,16 @@
         <v>700</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>335</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="2"/>
-        <v>251</v>
+        <f t="shared" si="5"/>
+        <v>241</v>
       </c>
       <c r="M41" t="s">
         <v>205</v>
@@ -3480,16 +3480,16 @@
         <v>770</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f>FLOOR(1.75*C42+50,1)</f>
+        <v>225</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="1"/>
+        <f>ROUND((1+(H42-75)/500)*(ROUND(0.25*(7*MAX(F42,D42)+MIN(F42,D42)),0)),0)</f>
         <v>364</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="2"/>
-        <v>312</v>
+        <f>ROUND((1+(H42-75)/500)*(ROUND(0.25*(5*MAX(G42,E42)+3*MIN(G42,E42)),0)),0)</f>
+        <v>276</v>
       </c>
       <c r="M42" t="s">
         <v>171</v>
@@ -3536,16 +3536,16 @@
         <v>770</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" ref="J43:J51" si="6">FLOOR(1.75*C43+50,1)</f>
+        <v>225</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K43:K51" si="7">ROUND((1+(H43-75)/500)*(ROUND(0.25*(7*MAX(F43,D43)+MIN(F43,D43)),0)),0)</f>
         <v>364</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="2"/>
-        <v>312</v>
+        <f t="shared" ref="L43:L51" si="8">ROUND((1+(H43-75)/500)*(ROUND(0.25*(5*MAX(G43,E43)+3*MIN(G43,E43)),0)),0)</f>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
         <v>206</v>
@@ -3592,15 +3592,15 @@
         <v>780</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f t="shared" si="6"/>
+        <v>233</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="M44" t="s">
@@ -3648,16 +3648,16 @@
         <v>580</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>163</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>282</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="2"/>
-        <v>215</v>
+        <f t="shared" si="8"/>
+        <v>214</v>
       </c>
       <c r="M45" t="s">
         <v>207</v>
@@ -3704,16 +3704,16 @@
         <v>700</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="0"/>
-        <v>216</v>
+        <f t="shared" si="6"/>
+        <v>239</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>339</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="2"/>
-        <v>233</v>
+        <f t="shared" si="8"/>
+        <v>222</v>
       </c>
       <c r="M46" t="s">
         <v>208</v>
@@ -3760,16 +3760,16 @@
         <v>625</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="6"/>
+        <v>172</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="2"/>
-        <v>185</v>
+        <f t="shared" si="8"/>
+        <v>175</v>
       </c>
       <c r="M47" t="s">
         <v>209</v>
@@ -3816,15 +3816,15 @@
         <v>594</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="6"/>
+        <v>207</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="M48" t="s">
@@ -3872,16 +3872,16 @@
         <v>618</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="0"/>
-        <v>136</v>
+        <f t="shared" si="6"/>
+        <v>169</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>326</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="2"/>
-        <v>241</v>
+        <f t="shared" si="8"/>
+        <v>230</v>
       </c>
       <c r="M49" t="s">
         <v>181</v>
@@ -3928,15 +3928,15 @@
         <v>545</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="0"/>
-        <v>206</v>
+        <f t="shared" si="6"/>
+        <v>230</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="M50" t="s">
@@ -3984,15 +3984,15 @@
         <v>700</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>137</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>342</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="M51" t="s">

--- a/mega_form.xlsx
+++ b/mega_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>https://media.52poke.com/wiki/0/0f/380Latias-Mega.png</t>
   </si>
   <si>
-    <t>https://media.52poke.com/wiki/a/a0/381Latios-Mega.png</t>
-  </si>
-  <si>
     <t>https://media.52poke.com/wiki/5/58/384Rayquaza-Mega.png</t>
   </si>
   <si>
@@ -712,6 +709,10 @@
   </si>
   <si>
     <t>超级比雕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.52poke.com/wiki/a/a0/381Latios-Mega.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,18 +1153,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1202,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q1" t="s">
         <v>0</v>
@@ -1216,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1">
         <v>80</v>
@@ -1252,19 +1253,19 @@
         <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
@@ -1272,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1">
         <v>78</v>
@@ -1308,16 +1309,16 @@
         <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q3" t="s">
         <v>1</v>
@@ -1328,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>78</v>
@@ -1364,16 +1365,16 @@
         <v>212</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N4" t="s">
         <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
@@ -1384,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
         <v>79</v>
@@ -1420,19 +1421,19 @@
         <v>237</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17">
@@ -1440,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>65</v>
@@ -1476,19 +1477,19 @@
         <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17">
@@ -1496,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <v>83</v>
@@ -1532,19 +1533,19 @@
         <v>175</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
         <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17">
@@ -1552,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1">
         <v>55</v>
@@ -1588,19 +1589,19 @@
         <v>207</v>
       </c>
       <c r="M8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" t="s">
         <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17">
@@ -1608,7 +1609,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
         <v>95</v>
@@ -1644,19 +1645,19 @@
         <v>259</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17">
@@ -1664,7 +1665,7 @@
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1">
         <v>60</v>
@@ -1700,19 +1701,19 @@
         <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17">
@@ -1720,7 +1721,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>105</v>
@@ -1756,19 +1757,19 @@
         <v>210</v>
       </c>
       <c r="M11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17">
@@ -1776,7 +1777,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1">
         <v>65</v>
@@ -1812,19 +1813,19 @@
         <v>231</v>
       </c>
       <c r="M12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17">
@@ -1832,7 +1833,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1">
         <v>95</v>
@@ -1868,19 +1869,19 @@
         <v>247</v>
       </c>
       <c r="M13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N13" t="s">
         <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17">
@@ -1888,7 +1889,7 @@
         <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1">
         <v>80</v>
@@ -1924,19 +1925,19 @@
         <v>210</v>
       </c>
       <c r="M14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17">
@@ -1944,7 +1945,7 @@
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>106</v>
@@ -1980,16 +1981,16 @@
         <v>222</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s">
         <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q15" t="s">
         <v>1</v>
@@ -2000,7 +2001,7 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1">
         <v>106</v>
@@ -2036,16 +2037,16 @@
         <v>229</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q16" t="s">
         <v>2</v>
@@ -2056,7 +2057,7 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1">
         <v>90</v>
@@ -2092,19 +2093,19 @@
         <v>203</v>
       </c>
       <c r="M17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17">
@@ -2112,7 +2113,7 @@
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1">
         <v>75</v>
@@ -2148,19 +2149,19 @@
         <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="17">
@@ -2168,7 +2169,7 @@
         <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
         <v>70</v>
@@ -2204,19 +2205,19 @@
         <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N19" t="s">
         <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="17">
@@ -2224,7 +2225,7 @@
         <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
@@ -2260,19 +2261,19 @@
         <v>223</v>
       </c>
       <c r="M20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s">
         <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17">
@@ -2280,7 +2281,7 @@
         <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1">
         <v>75</v>
@@ -2316,19 +2317,19 @@
         <v>194</v>
       </c>
       <c r="M21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s">
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17">
@@ -2336,7 +2337,7 @@
         <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -2372,19 +2373,19 @@
         <v>276</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
         <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17">
@@ -2392,7 +2393,7 @@
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1">
         <v>70</v>
@@ -2428,19 +2429,19 @@
         <v>186</v>
       </c>
       <c r="M23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s">
         <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="17">
@@ -2448,7 +2449,7 @@
         <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>80</v>
@@ -2484,19 +2485,19 @@
         <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" t="s">
         <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="17">
@@ -2504,7 +2505,7 @@
         <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
@@ -2540,19 +2541,19 @@
         <v>218</v>
       </c>
       <c r="M25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s">
         <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="17">
@@ -2560,7 +2561,7 @@
         <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1">
         <v>68</v>
@@ -2596,19 +2597,19 @@
         <v>229</v>
       </c>
       <c r="M26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s">
         <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17">
@@ -2616,7 +2617,7 @@
         <v>302</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -2652,19 +2653,19 @@
         <v>216</v>
       </c>
       <c r="M27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N27" t="s">
         <v>40</v>
       </c>
       <c r="O27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="17">
@@ -2672,7 +2673,7 @@
         <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1">
         <v>50</v>
@@ -2708,19 +2709,19 @@
         <v>217</v>
       </c>
       <c r="M28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s">
         <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17">
@@ -2728,7 +2729,7 @@
         <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1">
         <v>70</v>
@@ -2764,19 +2765,19 @@
         <v>331</v>
       </c>
       <c r="M29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N29" t="s">
         <v>43</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="17">
@@ -2784,7 +2785,7 @@
         <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1">
         <v>60</v>
@@ -2820,19 +2821,19 @@
         <v>179</v>
       </c>
       <c r="M30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s">
         <v>44</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17">
@@ -2840,7 +2841,7 @@
         <v>310</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -2876,19 +2877,19 @@
         <v>179</v>
       </c>
       <c r="M31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s">
         <v>45</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17">
@@ -2896,7 +2897,7 @@
         <v>319</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1">
         <v>70</v>
@@ -2932,19 +2933,19 @@
         <v>144</v>
       </c>
       <c r="M32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N32" t="s">
         <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17">
@@ -2952,7 +2953,7 @@
         <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1">
         <v>70</v>
@@ -2988,19 +2989,19 @@
         <v>183</v>
       </c>
       <c r="M33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N33" t="s">
         <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="17">
@@ -3008,7 +3009,7 @@
         <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1">
         <v>75</v>
@@ -3044,19 +3045,19 @@
         <v>218</v>
       </c>
       <c r="M34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N34" t="s">
         <v>48</v>
       </c>
       <c r="O34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="17">
@@ -3064,7 +3065,7 @@
         <v>354</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1">
         <v>64</v>
@@ -3100,19 +3101,19 @@
         <v>160</v>
       </c>
       <c r="M35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N35" t="s">
         <v>50</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="17">
@@ -3120,7 +3121,7 @@
         <v>359</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1">
         <v>65</v>
@@ -3156,19 +3157,19 @@
         <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s">
         <v>51</v>
       </c>
       <c r="O36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="17">
@@ -3176,7 +3177,7 @@
         <v>362</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1">
         <v>80</v>
@@ -3212,19 +3213,19 @@
         <v>168</v>
       </c>
       <c r="M37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s">
         <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="17">
@@ -3232,7 +3233,7 @@
         <v>373</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1">
         <v>95</v>
@@ -3268,19 +3269,19 @@
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s">
         <v>52</v>
       </c>
       <c r="O38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="17">
@@ -3288,7 +3289,7 @@
         <v>376</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1">
         <v>80</v>
@@ -3324,19 +3325,19 @@
         <v>289</v>
       </c>
       <c r="M39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N39" t="s">
         <v>53</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="17">
@@ -3344,7 +3345,7 @@
         <v>380</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1">
         <v>80</v>
@@ -3380,19 +3381,19 @@
         <v>297</v>
       </c>
       <c r="M40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s">
         <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17">
@@ -3400,7 +3401,7 @@
         <v>381</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1">
         <v>80</v>
@@ -3436,19 +3437,19 @@
         <v>241</v>
       </c>
       <c r="M41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N41" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="O41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="17">
@@ -3456,7 +3457,7 @@
         <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="1">
         <v>100</v>
@@ -3492,16 +3493,16 @@
         <v>276</v>
       </c>
       <c r="M42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
@@ -3512,7 +3513,7 @@
         <v>383</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1">
         <v>100</v>
@@ -3548,16 +3549,16 @@
         <v>276</v>
       </c>
       <c r="M43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
@@ -3568,7 +3569,7 @@
         <v>384</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1">
         <v>105</v>
@@ -3604,19 +3605,19 @@
         <v>216</v>
       </c>
       <c r="M44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="17">
@@ -3624,7 +3625,7 @@
         <v>428</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1">
         <v>65</v>
@@ -3660,19 +3661,19 @@
         <v>214</v>
       </c>
       <c r="M45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="17">
@@ -3680,7 +3681,7 @@
         <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1">
         <v>108</v>
@@ -3716,19 +3717,19 @@
         <v>222</v>
       </c>
       <c r="M46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="17">
@@ -3736,7 +3737,7 @@
         <v>448</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1">
         <v>70</v>
@@ -3772,19 +3773,19 @@
         <v>175</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="17">
@@ -3792,7 +3793,7 @@
         <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1">
         <v>90</v>
@@ -3828,19 +3829,19 @@
         <v>191</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17">
@@ -3848,7 +3849,7 @@
         <v>475</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1">
         <v>68</v>
@@ -3884,19 +3885,19 @@
         <v>230</v>
       </c>
       <c r="M49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="17">
@@ -3904,7 +3905,7 @@
         <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1">
         <v>103</v>
@@ -3940,19 +3941,19 @@
         <v>239</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17">
@@ -3960,7 +3961,7 @@
         <v>719</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -3996,19 +3997,19 @@
         <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
